--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-361351.8286561386</v>
+        <v>-363923.5991764273</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>249.1429280630552</v>
+        <v>249.1884867790721</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>332.5605594257515</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>161.599142800702</v>
+        <v>95.10777005307573</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>220.8789552701361</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>264.8574276124863</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>186.5322753603847</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>67.85443068060167</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>351.5702851040087</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>109.6870817625086</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,10 +1339,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>86.35579986925642</v>
+        <v>168.1742963765277</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758806</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>102.3739644559498</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824998</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>105.3305008047081</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176604</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>146.2378916327303</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605717463</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936206</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>192.7715349547541</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>20.13408744447759</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>151.855586233358</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913385</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1873.650916134332</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="C2" t="n">
-        <v>1873.650916134332</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="D2" t="n">
-        <v>1515.385217527582</v>
+        <v>1166.100135321049</v>
       </c>
       <c r="E2" t="n">
-        <v>1129.596964929337</v>
+        <v>780.3118827228052</v>
       </c>
       <c r="F2" t="n">
-        <v>718.6110601397296</v>
+        <v>369.3259779331976</v>
       </c>
       <c r="G2" t="n">
-        <v>302.9063098640185</v>
+        <v>369.3259779331976</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.650916134332</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.650916134332</v>
+        <v>1524.3658339278</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>143.6627691908464</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>884.9085321458211</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.9787363064644</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="C4" t="n">
-        <v>664.9787363064644</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941286</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F4" t="n">
         <v>367.9721493962183</v>
@@ -4480,13 +4480,13 @@
         <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4516,22 +4516,22 @@
         <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>1244.744376093918</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.199744578928</v>
+        <v>990.0598878880309</v>
       </c>
       <c r="W4" t="n">
-        <v>892.9682872044817</v>
+        <v>893.9914332889645</v>
       </c>
       <c r="X4" t="n">
-        <v>664.9787363064644</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="Y4" t="n">
-        <v>664.9787363064644</v>
+        <v>666.0018823909471</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.986492286524</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.986492286524</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="D5" t="n">
-        <v>1485.986492286524</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>1100.19823968828</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>689.212334898672</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1876.125824262336</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1876.125824262336</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.986492286524</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>791.0311677684842</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>622.0949848405774</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282416</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387889</v>
+        <v>1028.42245167113</v>
       </c>
       <c r="W7" t="n">
-        <v>859.5709967387889</v>
+        <v>739.005281634169</v>
       </c>
       <c r="X7" t="n">
-        <v>791.0311677684842</v>
+        <v>739.005281634169</v>
       </c>
       <c r="Y7" t="n">
-        <v>791.0311677684842</v>
+        <v>518.2127024906389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422266</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481854</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486387</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8106393615039</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1750.236010170004</v>
+        <v>1667.591064203064</v>
       </c>
       <c r="T10" t="n">
-        <v>1750.236010170004</v>
+        <v>1445.82444877259</v>
       </c>
       <c r="U10" t="n">
-        <v>1461.133143295648</v>
+        <v>1156.721581898233</v>
       </c>
       <c r="V10" t="n">
-        <v>1206.448655089761</v>
+        <v>902.0370936923462</v>
       </c>
       <c r="W10" t="n">
-        <v>1206.448655089761</v>
+        <v>612.6199236553855</v>
       </c>
       <c r="X10" t="n">
-        <v>978.4591041917437</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y10" t="n">
-        <v>978.4591041917437</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468473</v>
@@ -5133,10 +5133,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828446</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5227,22 +5227,22 @@
         <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235166</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>119.2902967703778</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>119.2902967703778</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856905</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577836</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454478</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>341.9229394630547</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359457</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159302</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004714</v>
@@ -5501,22 +5501,22 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5537,28 +5537,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400762</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121693</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138461</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703159</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,25 +5738,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,16 +5768,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962607</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589159</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143766</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400726</v>
+        <v>768.5380889459605</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121657</v>
+        <v>768.5380889459605</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121657</v>
+        <v>618.4214495336247</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121657</v>
+        <v>470.5083559512316</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121657</v>
+        <v>323.6184084533212</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270456</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797765</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.28419561186</v>
+        <v>1398.968683817748</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138424</v>
+        <v>1170.97913291973</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703123</v>
+        <v>950.1865537762002</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962607</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589159</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143766</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121657</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121657</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121657</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>198.0274703142553</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192571</v>
@@ -6722,25 +6722,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,28 +6947,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,31 +7190,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589397</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>51.87562449935021</v>
+        <v>51.83006578333325</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>125.149601705941</v>
       </c>
     </row>
     <row r="3">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-3.916509812724635e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.5054897610379</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>149.7636788678782</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>145.6085800303765</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>40.09054721822316</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664463</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>19.28624665953856</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405064</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864826</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>24.63391537253412</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>128.4813855737348</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-2.293720896561331e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26314,37 +26314,37 @@
         <v>251542.9259350415</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="F2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="H2" t="n">
         <v>282501.3098915023</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>282501.3098915023</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="I2" t="n">
-        <v>282501.3098915021</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="L2" t="n">
         <v>282501.3098915023</v>
       </c>
-      <c r="K2" t="n">
-        <v>282501.3098915021</v>
-      </c>
-      <c r="L2" t="n">
-        <v>282501.3098915021</v>
-      </c>
       <c r="M2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915021</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099819</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819093</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551177</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78309.57868964811</v>
+        <v>78309.5786896482</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
@@ -26430,28 +26430,28 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.20035675655</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756533</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.200356756566</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756573</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756575</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756643</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985005</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1034456.208770371</v>
+        <v>-1034712.078009782</v>
       </c>
       <c r="C6" t="n">
-        <v>57700.57332055221</v>
+        <v>57700.57332055202</v>
       </c>
       <c r="D6" t="n">
-        <v>-101720.69667734</v>
+        <v>-101720.6966773397</v>
       </c>
       <c r="E6" t="n">
-        <v>-153370.8820965172</v>
+        <v>-153405.6200219527</v>
       </c>
       <c r="F6" t="n">
-        <v>172041.5797108385</v>
+        <v>172006.841785403</v>
       </c>
       <c r="G6" t="n">
-        <v>172041.5797108385</v>
+        <v>172006.8417854027</v>
       </c>
       <c r="H6" t="n">
-        <v>172041.5797108384</v>
+        <v>172006.8417854029</v>
       </c>
       <c r="I6" t="n">
-        <v>172041.5797108384</v>
+        <v>172006.8417854029</v>
       </c>
       <c r="J6" t="n">
-        <v>4436.401900856625</v>
+        <v>4401.66397542019</v>
       </c>
       <c r="K6" t="n">
-        <v>172041.5797108384</v>
+        <v>172006.8417854028</v>
       </c>
       <c r="L6" t="n">
-        <v>123747.6097026475</v>
+        <v>123712.871777212</v>
       </c>
       <c r="M6" t="n">
-        <v>86986.55177532668</v>
+        <v>86951.81384989103</v>
       </c>
       <c r="N6" t="n">
-        <v>172041.5797108384</v>
+        <v>172006.8417854027</v>
       </c>
       <c r="O6" t="n">
-        <v>147444.725985102</v>
+        <v>147444.7259851021</v>
       </c>
       <c r="P6" t="n">
-        <v>166872.4439787338</v>
+        <v>166872.443978734</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>37.1705412527175</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>261.0883369501126</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>124.923855535889</v>
+        <v>191.4152282835153</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>133.8040863505468</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>146.6902751604677</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.60536796344334</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>157.8552247084355</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.11275651667421</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.0651767076263</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>103.4132254621855</v>
+        <v>21.59472895491422</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-7.144468577784776e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31853,13 +31853,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>370.9642309107737</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510266</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>152.5685698206121</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565744</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32634,31 +32634,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
         <v>0.1345549672467222</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565744</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,7 +32813,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32871,31 +32871,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>93.34947739681142</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L6" t="n">
-        <v>436.6197581489557</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>228.3679864663293</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366964</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.73094315394538</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191357</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236315814</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.95065951213</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191334</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.95065951213</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
